--- a/Primary files/Bishops_and_dioceses_Roman.xlsx
+++ b/Primary files/Bishops_and_dioceses_Roman.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/acavender/Documents/Data analysis/bishopsAndTwitter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\GitHub projects\bishopsAndTwitter\Primary files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963816A9-C30E-064D-A91E-E7EE84A8546A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599F7741-09DE-44F2-9A68-E64629C89407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{D8E070FD-0820-4B8C-90FF-3D3990EBEDA3}"/>
+    <workbookView xWindow="19118" yWindow="0" windowWidth="19365" windowHeight="21308" xr2:uid="{D8E070FD-0820-4B8C-90FF-3D3990EBEDA3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Roman dioceses and bishops" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$H$415</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Roman dioceses and bishops'!$H$1:$H$415</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4441,25 +4441,25 @@
   <dimension ref="A1:AB415"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A394" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.46484375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.46484375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="49.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4509,7 +4509,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4556,7 +4556,7 @@
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
     </row>
-    <row r="3" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4603,7 +4603,7 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -4648,7 +4648,7 @@
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
     </row>
-    <row r="5" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -4698,7 +4698,7 @@
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
     </row>
-    <row r="6" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -4746,7 +4746,7 @@
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
     </row>
-    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -4792,7 +4792,7 @@
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
     </row>
-    <row r="8" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -4838,7 +4838,7 @@
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
     </row>
-    <row r="9" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -4883,7 +4883,7 @@
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
     </row>
-    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -4928,7 +4928,7 @@
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
     </row>
-    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -4973,7 +4973,7 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
     </row>
-    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -5018,7 +5018,7 @@
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
     </row>
-    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -5065,7 +5065,7 @@
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
     </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -5110,7 +5110,7 @@
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
     </row>
-    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -5155,7 +5155,7 @@
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
     </row>
-    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -5200,7 +5200,7 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
     </row>
-    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -5245,7 +5245,7 @@
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
     </row>
-    <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -5290,7 +5290,7 @@
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
     </row>
-    <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -5335,7 +5335,7 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
     </row>
-    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -5380,7 +5380,7 @@
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
     </row>
-    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -5425,7 +5425,7 @@
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
     </row>
-    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -5470,7 +5470,7 @@
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
     </row>
-    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -5517,7 +5517,7 @@
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
     </row>
-    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -5562,7 +5562,7 @@
       <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
     </row>
-    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -5607,7 +5607,7 @@
       <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
     </row>
-    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -5652,7 +5652,7 @@
       <c r="AA26" s="3"/>
       <c r="AB26" s="3"/>
     </row>
-    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -5697,7 +5697,7 @@
       <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
     </row>
-    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -5742,7 +5742,7 @@
       <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
     </row>
-    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -5787,7 +5787,7 @@
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
     </row>
-    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -5835,7 +5835,7 @@
       <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
     </row>
-    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -5880,7 +5880,7 @@
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
     </row>
-    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -5927,7 +5927,7 @@
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
     </row>
-    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -5972,7 +5972,7 @@
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
     </row>
-    <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>57</v>
       </c>
@@ -6017,7 +6017,7 @@
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
     </row>
-    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>57</v>
       </c>
@@ -6062,7 +6062,7 @@
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
     </row>
-    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>57</v>
       </c>
@@ -6109,7 +6109,7 @@
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
     </row>
-    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -6154,7 +6154,7 @@
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
     </row>
-    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -6199,7 +6199,7 @@
       <c r="AA38" s="3"/>
       <c r="AB38" s="3"/>
     </row>
-    <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -6246,7 +6246,7 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
     </row>
-    <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>57</v>
       </c>
@@ -6291,7 +6291,7 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
     </row>
-    <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>57</v>
       </c>
@@ -6337,7 +6337,7 @@
       <c r="AA41" s="3"/>
       <c r="AB41" s="3"/>
     </row>
-    <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>57</v>
       </c>
@@ -6382,7 +6382,7 @@
       <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
     </row>
-    <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -6425,7 +6425,7 @@
       <c r="AA43" s="3"/>
       <c r="AB43" s="3"/>
     </row>
-    <row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -6468,7 +6468,7 @@
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
     </row>
-    <row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>57</v>
       </c>
@@ -6513,7 +6513,7 @@
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
     </row>
-    <row r="46" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -6560,7 +6560,7 @@
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
     </row>
-    <row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -6605,7 +6605,7 @@
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
     </row>
-    <row r="48" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -6650,7 +6650,7 @@
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
     </row>
-    <row r="49" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>162</v>
       </c>
@@ -6695,7 +6695,7 @@
       <c r="AA49" s="3"/>
       <c r="AB49" s="3"/>
     </row>
-    <row r="50" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>162</v>
       </c>
@@ -6740,7 +6740,7 @@
       <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
     </row>
-    <row r="51" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>162</v>
       </c>
@@ -6785,7 +6785,7 @@
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
     </row>
-    <row r="52" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>162</v>
       </c>
@@ -6830,7 +6830,7 @@
       <c r="AA52" s="3"/>
       <c r="AB52" s="3"/>
     </row>
-    <row r="53" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>162</v>
       </c>
@@ -6875,7 +6875,7 @@
       <c r="AA53" s="3"/>
       <c r="AB53" s="3"/>
     </row>
-    <row r="54" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>162</v>
       </c>
@@ -6920,7 +6920,7 @@
       <c r="AA54" s="3"/>
       <c r="AB54" s="3"/>
     </row>
-    <row r="55" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>183</v>
       </c>
@@ -6965,7 +6965,7 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
     </row>
-    <row r="56" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>183</v>
       </c>
@@ -7009,7 +7009,7 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
     </row>
-    <row r="57" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>183</v>
       </c>
@@ -7057,7 +7057,7 @@
       <c r="AA57" s="3"/>
       <c r="AB57" s="3"/>
     </row>
-    <row r="58" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>183</v>
       </c>
@@ -7102,7 +7102,7 @@
       <c r="AA58" s="3"/>
       <c r="AB58" s="3"/>
     </row>
-    <row r="59" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>183</v>
       </c>
@@ -7147,7 +7147,7 @@
       <c r="AA59" s="3"/>
       <c r="AB59" s="3"/>
     </row>
-    <row r="60" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>183</v>
       </c>
@@ -7192,7 +7192,7 @@
       <c r="AA60" s="3"/>
       <c r="AB60" s="3"/>
     </row>
-    <row r="61" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>183</v>
       </c>
@@ -7237,7 +7237,7 @@
       <c r="AA61" s="3"/>
       <c r="AB61" s="3"/>
     </row>
-    <row r="62" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>183</v>
       </c>
@@ -7282,7 +7282,7 @@
       <c r="AA62" s="3"/>
       <c r="AB62" s="3"/>
     </row>
-    <row r="63" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>183</v>
       </c>
@@ -7327,7 +7327,7 @@
       <c r="AA63" s="3"/>
       <c r="AB63" s="3"/>
     </row>
-    <row r="64" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>211</v>
       </c>
@@ -7372,7 +7372,7 @@
       <c r="AA64" s="3"/>
       <c r="AB64" s="3"/>
     </row>
-    <row r="65" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>211</v>
       </c>
@@ -7417,7 +7417,7 @@
       <c r="AA65" s="3"/>
       <c r="AB65" s="3"/>
     </row>
-    <row r="66" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>218</v>
       </c>
@@ -7462,7 +7462,7 @@
       <c r="AA66" s="3"/>
       <c r="AB66" s="3"/>
     </row>
-    <row r="67" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>218</v>
       </c>
@@ -7507,7 +7507,7 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
     </row>
-    <row r="68" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>218</v>
       </c>
@@ -7552,7 +7552,7 @@
       <c r="AA68" s="3"/>
       <c r="AB68" s="3"/>
     </row>
-    <row r="69" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>218</v>
       </c>
@@ -7597,7 +7597,7 @@
       <c r="AA69" s="3"/>
       <c r="AB69" s="3"/>
     </row>
-    <row r="70" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>218</v>
       </c>
@@ -7642,7 +7642,7 @@
       <c r="AA70" s="3"/>
       <c r="AB70" s="3"/>
     </row>
-    <row r="71" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>218</v>
       </c>
@@ -7690,7 +7690,7 @@
       <c r="AA71" s="3"/>
       <c r="AB71" s="3"/>
     </row>
-    <row r="72" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>218</v>
       </c>
@@ -7738,7 +7738,7 @@
       <c r="AA72" s="3"/>
       <c r="AB72" s="3"/>
     </row>
-    <row r="73" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>218</v>
       </c>
@@ -7783,7 +7783,7 @@
       <c r="AA73" s="3"/>
       <c r="AB73" s="3"/>
     </row>
-    <row r="74" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>218</v>
       </c>
@@ -7828,7 +7828,7 @@
       <c r="AA74" s="3"/>
       <c r="AB74" s="3"/>
     </row>
-    <row r="75" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>218</v>
       </c>
@@ -7873,7 +7873,7 @@
       <c r="AA75" s="3"/>
       <c r="AB75" s="3"/>
     </row>
-    <row r="76" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>218</v>
       </c>
@@ -7918,7 +7918,7 @@
       <c r="AA76" s="3"/>
       <c r="AB76" s="3"/>
     </row>
-    <row r="77" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>218</v>
       </c>
@@ -7963,7 +7963,7 @@
       <c r="AA77" s="3"/>
       <c r="AB77" s="3"/>
     </row>
-    <row r="78" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>262</v>
       </c>
@@ -8011,7 +8011,7 @@
       <c r="AA78" s="3"/>
       <c r="AB78" s="3"/>
     </row>
-    <row r="79" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>262</v>
       </c>
@@ -8059,7 +8059,7 @@
       <c r="AA79" s="3"/>
       <c r="AB79" s="3"/>
     </row>
-    <row r="80" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>262</v>
       </c>
@@ -8104,7 +8104,7 @@
       <c r="AA80" s="3"/>
       <c r="AB80" s="3"/>
     </row>
-    <row r="81" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>262</v>
       </c>
@@ -8149,7 +8149,7 @@
       <c r="AA81" s="3"/>
       <c r="AB81" s="3"/>
     </row>
-    <row r="82" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>262</v>
       </c>
@@ -8194,7 +8194,7 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
     </row>
-    <row r="83" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>262</v>
       </c>
@@ -8239,7 +8239,7 @@
       <c r="AA83" s="3"/>
       <c r="AB83" s="3"/>
     </row>
-    <row r="84" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>281</v>
       </c>
@@ -8284,7 +8284,7 @@
       <c r="AA84" s="3"/>
       <c r="AB84" s="3"/>
     </row>
-    <row r="85" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>286</v>
       </c>
@@ -8329,7 +8329,7 @@
       <c r="AA85" s="3"/>
       <c r="AB85" s="3"/>
     </row>
-    <row r="86" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>291</v>
       </c>
@@ -8374,7 +8374,7 @@
       <c r="AA86" s="3"/>
       <c r="AB86" s="3"/>
     </row>
-    <row r="87" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>291</v>
       </c>
@@ -8419,7 +8419,7 @@
       <c r="AA87" s="3"/>
       <c r="AB87" s="3"/>
     </row>
-    <row r="88" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>291</v>
       </c>
@@ -8464,7 +8464,7 @@
       <c r="AA88" s="3"/>
       <c r="AB88" s="3"/>
     </row>
-    <row r="89" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>291</v>
       </c>
@@ -8509,7 +8509,7 @@
       <c r="AA89" s="3"/>
       <c r="AB89" s="3"/>
     </row>
-    <row r="90" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>291</v>
       </c>
@@ -8554,7 +8554,7 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
     </row>
-    <row r="91" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>291</v>
       </c>
@@ -8602,7 +8602,7 @@
       <c r="AA91" s="3"/>
       <c r="AB91" s="3"/>
     </row>
-    <row r="92" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>291</v>
       </c>
@@ -8647,7 +8647,7 @@
       <c r="AA92" s="3"/>
       <c r="AB92" s="3"/>
     </row>
-    <row r="93" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>291</v>
       </c>
@@ -8692,7 +8692,7 @@
       <c r="AA93" s="3"/>
       <c r="AB93" s="3"/>
     </row>
-    <row r="94" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>291</v>
       </c>
@@ -8737,7 +8737,7 @@
       <c r="AA94" s="3"/>
       <c r="AB94" s="3"/>
     </row>
-    <row r="95" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>291</v>
       </c>
@@ -8782,7 +8782,7 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
     </row>
-    <row r="96" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>291</v>
       </c>
@@ -8827,7 +8827,7 @@
       <c r="AA96" s="3"/>
       <c r="AB96" s="3"/>
     </row>
-    <row r="97" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>291</v>
       </c>
@@ -8872,7 +8872,7 @@
       <c r="AA97" s="3"/>
       <c r="AB97" s="3"/>
     </row>
-    <row r="98" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>291</v>
       </c>
@@ -8917,7 +8917,7 @@
       <c r="AA98" s="3"/>
       <c r="AB98" s="3"/>
     </row>
-    <row r="99" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>291</v>
       </c>
@@ -8962,7 +8962,7 @@
       <c r="AA99" s="3"/>
       <c r="AB99" s="3"/>
     </row>
-    <row r="100" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>291</v>
       </c>
@@ -9007,7 +9007,7 @@
       <c r="AA100" s="3"/>
       <c r="AB100" s="3"/>
     </row>
-    <row r="101" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>291</v>
       </c>
@@ -9052,7 +9052,7 @@
       <c r="AA101" s="3"/>
       <c r="AB101" s="3"/>
     </row>
-    <row r="102" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>291</v>
       </c>
@@ -9097,7 +9097,7 @@
       <c r="AA102" s="3"/>
       <c r="AB102" s="3"/>
     </row>
-    <row r="103" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>291</v>
       </c>
@@ -9142,7 +9142,7 @@
       <c r="AA103" s="3"/>
       <c r="AB103" s="3"/>
     </row>
-    <row r="104" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>291</v>
       </c>
@@ -9190,7 +9190,7 @@
       <c r="AA104" s="3"/>
       <c r="AB104" s="3"/>
     </row>
-    <row r="105" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>291</v>
       </c>
@@ -9235,7 +9235,7 @@
       <c r="AA105" s="3"/>
       <c r="AB105" s="3"/>
     </row>
-    <row r="106" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>291</v>
       </c>
@@ -9281,7 +9281,7 @@
       <c r="AA106" s="3"/>
       <c r="AB106" s="3"/>
     </row>
-    <row r="107" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>349</v>
       </c>
@@ -9326,7 +9326,7 @@
       <c r="AA107" s="3"/>
       <c r="AB107" s="3"/>
     </row>
-    <row r="108" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>349</v>
       </c>
@@ -9371,7 +9371,7 @@
       <c r="AA108" s="3"/>
       <c r="AB108" s="3"/>
     </row>
-    <row r="109" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>349</v>
       </c>
@@ -9416,7 +9416,7 @@
       <c r="AA109" s="3"/>
       <c r="AB109" s="3"/>
     </row>
-    <row r="110" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>349</v>
       </c>
@@ -9461,7 +9461,7 @@
       <c r="AA110" s="3"/>
       <c r="AB110" s="3"/>
     </row>
-    <row r="111" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>349</v>
       </c>
@@ -9506,7 +9506,7 @@
       <c r="AA111" s="3"/>
       <c r="AB111" s="3"/>
     </row>
-    <row r="112" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>349</v>
       </c>
@@ -9551,7 +9551,7 @@
       <c r="AA112" s="3"/>
       <c r="AB112" s="3"/>
     </row>
-    <row r="113" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>349</v>
       </c>
@@ -9596,7 +9596,7 @@
       <c r="AA113" s="3"/>
       <c r="AB113" s="3"/>
     </row>
-    <row r="114" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>374</v>
       </c>
@@ -9639,7 +9639,7 @@
       <c r="AA114" s="3"/>
       <c r="AB114" s="3"/>
     </row>
-    <row r="115" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>374</v>
       </c>
@@ -9684,7 +9684,7 @@
       <c r="AA115" s="3"/>
       <c r="AB115" s="3"/>
     </row>
-    <row r="116" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>374</v>
       </c>
@@ -9732,7 +9732,7 @@
       <c r="AA116" s="3"/>
       <c r="AB116" s="3"/>
     </row>
-    <row r="117" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>374</v>
       </c>
@@ -9777,7 +9777,7 @@
       <c r="AA117" s="3"/>
       <c r="AB117" s="3"/>
     </row>
-    <row r="118" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>374</v>
       </c>
@@ -9822,7 +9822,7 @@
       <c r="AA118" s="3"/>
       <c r="AB118" s="3"/>
     </row>
-    <row r="119" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>374</v>
       </c>
@@ -9867,7 +9867,7 @@
       <c r="AA119" s="3"/>
       <c r="AB119" s="3"/>
     </row>
-    <row r="120" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>374</v>
       </c>
@@ -9912,7 +9912,7 @@
       <c r="AA120" s="3"/>
       <c r="AB120" s="3"/>
     </row>
-    <row r="121" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>374</v>
       </c>
@@ -9960,7 +9960,7 @@
       <c r="AA121" s="3"/>
       <c r="AB121" s="3"/>
     </row>
-    <row r="122" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>374</v>
       </c>
@@ -10005,7 +10005,7 @@
       <c r="AA122" s="3"/>
       <c r="AB122" s="3"/>
     </row>
-    <row r="123" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>374</v>
       </c>
@@ -10050,7 +10050,7 @@
       <c r="AA123" s="3"/>
       <c r="AB123" s="3"/>
     </row>
-    <row r="124" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>403</v>
       </c>
@@ -10095,7 +10095,7 @@
       <c r="AA124" s="3"/>
       <c r="AB124" s="3"/>
     </row>
-    <row r="125" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>403</v>
       </c>
@@ -10140,7 +10140,7 @@
       <c r="AA125" s="3"/>
       <c r="AB125" s="3"/>
     </row>
-    <row r="126" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>403</v>
       </c>
@@ -10185,7 +10185,7 @@
       <c r="AA126" s="3"/>
       <c r="AB126" s="3"/>
     </row>
-    <row r="127" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>403</v>
       </c>
@@ -10230,7 +10230,7 @@
       <c r="AA127" s="3"/>
       <c r="AB127" s="3"/>
     </row>
-    <row r="128" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>403</v>
       </c>
@@ -10275,7 +10275,7 @@
       <c r="AA128" s="3"/>
       <c r="AB128" s="3"/>
     </row>
-    <row r="129" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>403</v>
       </c>
@@ -10320,7 +10320,7 @@
       <c r="AA129" s="3"/>
       <c r="AB129" s="3"/>
     </row>
-    <row r="130" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>403</v>
       </c>
@@ -10365,7 +10365,7 @@
       <c r="AA130" s="3"/>
       <c r="AB130" s="3"/>
     </row>
-    <row r="131" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>427</v>
       </c>
@@ -10410,7 +10410,7 @@
       <c r="AA131" s="3"/>
       <c r="AB131" s="3"/>
     </row>
-    <row r="132" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>427</v>
       </c>
@@ -10455,7 +10455,7 @@
       <c r="AA132" s="3"/>
       <c r="AB132" s="3"/>
     </row>
-    <row r="133" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>427</v>
       </c>
@@ -10500,7 +10500,7 @@
       <c r="AA133" s="3"/>
       <c r="AB133" s="3"/>
     </row>
-    <row r="134" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>427</v>
       </c>
@@ -10545,7 +10545,7 @@
       <c r="AA134" s="3"/>
       <c r="AB134" s="3"/>
     </row>
-    <row r="135" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>427</v>
       </c>
@@ -10593,7 +10593,7 @@
       <c r="AA135" s="3"/>
       <c r="AB135" s="3"/>
     </row>
-    <row r="136" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>427</v>
       </c>
@@ -10638,7 +10638,7 @@
       <c r="AA136" s="3"/>
       <c r="AB136" s="3"/>
     </row>
-    <row r="137" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>427</v>
       </c>
@@ -10683,7 +10683,7 @@
       <c r="AA137" s="3"/>
       <c r="AB137" s="3"/>
     </row>
-    <row r="138" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>453</v>
       </c>
@@ -10728,7 +10728,7 @@
       <c r="AA138" s="3"/>
       <c r="AB138" s="3"/>
     </row>
-    <row r="139" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>453</v>
       </c>
@@ -10773,7 +10773,7 @@
       <c r="AA139" s="3"/>
       <c r="AB139" s="3"/>
     </row>
-    <row r="140" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>453</v>
       </c>
@@ -10818,7 +10818,7 @@
       <c r="AA140" s="3"/>
       <c r="AB140" s="3"/>
     </row>
-    <row r="141" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>453</v>
       </c>
@@ -10863,7 +10863,7 @@
       <c r="AA141" s="3"/>
       <c r="AB141" s="3"/>
     </row>
-    <row r="142" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>453</v>
       </c>
@@ -10908,7 +10908,7 @@
       <c r="AA142" s="3"/>
       <c r="AB142" s="3"/>
     </row>
-    <row r="143" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>453</v>
       </c>
@@ -10953,7 +10953,7 @@
       <c r="AA143" s="3"/>
       <c r="AB143" s="3"/>
     </row>
-    <row r="144" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>453</v>
       </c>
@@ -10998,7 +10998,7 @@
       <c r="AA144" s="3"/>
       <c r="AB144" s="3"/>
     </row>
-    <row r="145" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>453</v>
       </c>
@@ -11043,7 +11043,7 @@
       <c r="AA145" s="3"/>
       <c r="AB145" s="3"/>
     </row>
-    <row r="146" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>453</v>
       </c>
@@ -11088,7 +11088,7 @@
       <c r="AA146" s="3"/>
       <c r="AB146" s="3"/>
     </row>
-    <row r="147" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>453</v>
       </c>
@@ -11133,7 +11133,7 @@
       <c r="AA147" s="3"/>
       <c r="AB147" s="3"/>
     </row>
-    <row r="148" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>453</v>
       </c>
@@ -11178,7 +11178,7 @@
       <c r="AA148" s="3"/>
       <c r="AB148" s="3"/>
     </row>
-    <row r="149" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>490</v>
       </c>
@@ -11223,7 +11223,7 @@
       <c r="AA149" s="3"/>
       <c r="AB149" s="3"/>
     </row>
-    <row r="150" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>495</v>
       </c>
@@ -11268,7 +11268,7 @@
       <c r="AA150" s="3"/>
       <c r="AB150" s="3"/>
     </row>
-    <row r="151" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>495</v>
       </c>
@@ -11316,7 +11316,7 @@
       <c r="AA151" s="3"/>
       <c r="AB151" s="3"/>
     </row>
-    <row r="152" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>495</v>
       </c>
@@ -11361,7 +11361,7 @@
       <c r="AA152" s="3"/>
       <c r="AB152" s="3"/>
     </row>
-    <row r="153" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>495</v>
       </c>
@@ -11406,7 +11406,7 @@
       <c r="AA153" s="3"/>
       <c r="AB153" s="3"/>
     </row>
-    <row r="154" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>495</v>
       </c>
@@ -11451,7 +11451,7 @@
       <c r="AA154" s="3"/>
       <c r="AB154" s="3"/>
     </row>
-    <row r="155" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>508</v>
       </c>
@@ -11499,7 +11499,7 @@
       <c r="AA155" s="3"/>
       <c r="AB155" s="3"/>
     </row>
-    <row r="156" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>508</v>
       </c>
@@ -11544,7 +11544,7 @@
       <c r="AA156" s="3"/>
       <c r="AB156" s="3"/>
     </row>
-    <row r="157" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>508</v>
       </c>
@@ -11589,7 +11589,7 @@
       <c r="AA157" s="3"/>
       <c r="AB157" s="3"/>
     </row>
-    <row r="158" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>508</v>
       </c>
@@ -11634,7 +11634,7 @@
       <c r="AA158" s="3"/>
       <c r="AB158" s="3"/>
     </row>
-    <row r="159" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>508</v>
       </c>
@@ -11679,7 +11679,7 @@
       <c r="AA159" s="3"/>
       <c r="AB159" s="3"/>
     </row>
-    <row r="160" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>508</v>
       </c>
@@ -11724,7 +11724,7 @@
       <c r="AA160" s="3"/>
       <c r="AB160" s="3"/>
     </row>
-    <row r="161" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>508</v>
       </c>
@@ -11769,7 +11769,7 @@
       <c r="AA161" s="3"/>
       <c r="AB161" s="3"/>
     </row>
-    <row r="162" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>508</v>
       </c>
@@ -11817,7 +11817,7 @@
       <c r="AA162" s="3"/>
       <c r="AB162" s="3"/>
     </row>
-    <row r="163" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>508</v>
       </c>
@@ -11862,7 +11862,7 @@
       <c r="AA163" s="3"/>
       <c r="AB163" s="3"/>
     </row>
-    <row r="164" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>508</v>
       </c>
@@ -11907,7 +11907,7 @@
       <c r="AA164" s="3"/>
       <c r="AB164" s="3"/>
     </row>
-    <row r="165" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>508</v>
       </c>
@@ -11952,7 +11952,7 @@
       <c r="AA165" s="3"/>
       <c r="AB165" s="3"/>
     </row>
-    <row r="166" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>508</v>
       </c>
@@ -11997,7 +11997,7 @@
       <c r="AA166" s="3"/>
       <c r="AB166" s="3"/>
     </row>
-    <row r="167" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>508</v>
       </c>
@@ -12042,7 +12042,7 @@
       <c r="AA167" s="3"/>
       <c r="AB167" s="3"/>
     </row>
-    <row r="168" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>544</v>
       </c>
@@ -12087,7 +12087,7 @@
       <c r="AA168" s="3"/>
       <c r="AB168" s="3"/>
     </row>
-    <row r="169" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>544</v>
       </c>
@@ -12132,7 +12132,7 @@
       <c r="AA169" s="3"/>
       <c r="AB169" s="3"/>
     </row>
-    <row r="170" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>544</v>
       </c>
@@ -12177,7 +12177,7 @@
       <c r="AA170" s="3"/>
       <c r="AB170" s="3"/>
     </row>
-    <row r="171" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>544</v>
       </c>
@@ -12222,7 +12222,7 @@
       <c r="AA171" s="3"/>
       <c r="AB171" s="3"/>
     </row>
-    <row r="172" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>544</v>
       </c>
@@ -12267,7 +12267,7 @@
       <c r="AA172" s="3"/>
       <c r="AB172" s="3"/>
     </row>
-    <row r="173" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>544</v>
       </c>
@@ -12312,7 +12312,7 @@
       <c r="AA173" s="3"/>
       <c r="AB173" s="3"/>
     </row>
-    <row r="174" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>544</v>
       </c>
@@ -12357,7 +12357,7 @@
       <c r="AA174" s="3"/>
       <c r="AB174" s="3"/>
     </row>
-    <row r="175" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>544</v>
       </c>
@@ -12402,7 +12402,7 @@
       <c r="AA175" s="3"/>
       <c r="AB175" s="3"/>
     </row>
-    <row r="176" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>544</v>
       </c>
@@ -12447,7 +12447,7 @@
       <c r="AA176" s="3"/>
       <c r="AB176" s="3"/>
     </row>
-    <row r="177" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>544</v>
       </c>
@@ -12492,7 +12492,7 @@
       <c r="AA177" s="3"/>
       <c r="AB177" s="3"/>
     </row>
-    <row r="178" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>544</v>
       </c>
@@ -12537,7 +12537,7 @@
       <c r="AA178" s="3"/>
       <c r="AB178" s="3"/>
     </row>
-    <row r="179" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>544</v>
       </c>
@@ -12582,7 +12582,7 @@
       <c r="AA179" s="3"/>
       <c r="AB179" s="3"/>
     </row>
-    <row r="180" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>544</v>
       </c>
@@ -12625,7 +12625,7 @@
       <c r="AA180" s="3"/>
       <c r="AB180" s="3"/>
     </row>
-    <row r="181" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>544</v>
       </c>
@@ -12670,7 +12670,7 @@
       <c r="AA181" s="3"/>
       <c r="AB181" s="3"/>
     </row>
-    <row r="182" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>544</v>
       </c>
@@ -12715,7 +12715,7 @@
       <c r="AA182" s="3"/>
       <c r="AB182" s="3"/>
     </row>
-    <row r="183" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>544</v>
       </c>
@@ -12760,7 +12760,7 @@
       <c r="AA183" s="3"/>
       <c r="AB183" s="3"/>
     </row>
-    <row r="184" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>544</v>
       </c>
@@ -12805,7 +12805,7 @@
       <c r="AA184" s="3"/>
       <c r="AB184" s="3"/>
     </row>
-    <row r="185" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>544</v>
       </c>
@@ -12850,7 +12850,7 @@
       <c r="AA185" s="3"/>
       <c r="AB185" s="3"/>
     </row>
-    <row r="186" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>544</v>
       </c>
@@ -12895,7 +12895,7 @@
       <c r="AA186" s="3"/>
       <c r="AB186" s="3"/>
     </row>
-    <row r="187" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>594</v>
       </c>
@@ -12940,7 +12940,7 @@
       <c r="AA187" s="3"/>
       <c r="AB187" s="3"/>
     </row>
-    <row r="188" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>594</v>
       </c>
@@ -12985,7 +12985,7 @@
       <c r="AA188" s="3"/>
       <c r="AB188" s="3"/>
     </row>
-    <row r="189" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>594</v>
       </c>
@@ -13030,7 +13030,7 @@
       <c r="AA189" s="3"/>
       <c r="AB189" s="3"/>
     </row>
-    <row r="190" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>594</v>
       </c>
@@ -13075,7 +13075,7 @@
       <c r="AA190" s="3"/>
       <c r="AB190" s="3"/>
     </row>
-    <row r="191" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>594</v>
       </c>
@@ -13120,7 +13120,7 @@
       <c r="AA191" s="3"/>
       <c r="AB191" s="3"/>
     </row>
-    <row r="192" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>594</v>
       </c>
@@ -13165,7 +13165,7 @@
       <c r="AA192" s="3"/>
       <c r="AB192" s="3"/>
     </row>
-    <row r="193" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>594</v>
       </c>
@@ -13210,7 +13210,7 @@
       <c r="AA193" s="3"/>
       <c r="AB193" s="3"/>
     </row>
-    <row r="194" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>594</v>
       </c>
@@ -13255,7 +13255,7 @@
       <c r="AA194" s="3"/>
       <c r="AB194" s="3"/>
     </row>
-    <row r="195" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>594</v>
       </c>
@@ -13300,7 +13300,7 @@
       <c r="AA195" s="3"/>
       <c r="AB195" s="3"/>
     </row>
-    <row r="196" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>594</v>
       </c>
@@ -13345,7 +13345,7 @@
       <c r="AA196" s="3"/>
       <c r="AB196" s="3"/>
     </row>
-    <row r="197" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>594</v>
       </c>
@@ -13390,7 +13390,7 @@
       <c r="AA197" s="3"/>
       <c r="AB197" s="3"/>
     </row>
-    <row r="198" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>594</v>
       </c>
@@ -13438,7 +13438,7 @@
       <c r="AA198" s="3"/>
       <c r="AB198" s="3"/>
     </row>
-    <row r="199" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>594</v>
       </c>
@@ -13483,7 +13483,7 @@
       <c r="AA199" s="3"/>
       <c r="AB199" s="3"/>
     </row>
-    <row r="200" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>594</v>
       </c>
@@ -13528,7 +13528,7 @@
       <c r="AA200" s="3"/>
       <c r="AB200" s="3"/>
     </row>
-    <row r="201" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>594</v>
       </c>
@@ -13573,7 +13573,7 @@
       <c r="AA201" s="3"/>
       <c r="AB201" s="3"/>
     </row>
-    <row r="202" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>594</v>
       </c>
@@ -13618,7 +13618,7 @@
       <c r="AA202" s="3"/>
       <c r="AB202" s="3"/>
     </row>
-    <row r="203" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>640</v>
       </c>
@@ -13663,7 +13663,7 @@
       <c r="AA203" s="3"/>
       <c r="AB203" s="3"/>
     </row>
-    <row r="204" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>640</v>
       </c>
@@ -13708,7 +13708,7 @@
       <c r="AA204" s="3"/>
       <c r="AB204" s="3"/>
     </row>
-    <row r="205" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>649</v>
       </c>
@@ -13753,7 +13753,7 @@
       <c r="AA205" s="3"/>
       <c r="AB205" s="3"/>
     </row>
-    <row r="206" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>649</v>
       </c>
@@ -13798,7 +13798,7 @@
       <c r="AA206" s="3"/>
       <c r="AB206" s="3"/>
     </row>
-    <row r="207" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>649</v>
       </c>
@@ -13843,7 +13843,7 @@
       <c r="AA207" s="3"/>
       <c r="AB207" s="3"/>
     </row>
-    <row r="208" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>649</v>
       </c>
@@ -13888,7 +13888,7 @@
       <c r="AA208" s="3"/>
       <c r="AB208" s="3"/>
     </row>
-    <row r="209" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>649</v>
       </c>
@@ -13933,7 +13933,7 @@
       <c r="AA209" s="3"/>
       <c r="AB209" s="3"/>
     </row>
-    <row r="210" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
         <v>649</v>
       </c>
@@ -13978,7 +13978,7 @@
       <c r="AA210" s="3"/>
       <c r="AB210" s="3"/>
     </row>
-    <row r="211" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
         <v>649</v>
       </c>
@@ -14023,7 +14023,7 @@
       <c r="AA211" s="3"/>
       <c r="AB211" s="3"/>
     </row>
-    <row r="212" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
         <v>649</v>
       </c>
@@ -14068,7 +14068,7 @@
       <c r="AA212" s="3"/>
       <c r="AB212" s="3"/>
     </row>
-    <row r="213" spans="1:28" ht="48" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:28" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
         <v>649</v>
       </c>
@@ -14113,7 +14113,7 @@
       <c r="AA213" s="3"/>
       <c r="AB213" s="3"/>
     </row>
-    <row r="214" spans="1:28" ht="48" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:28" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
         <v>649</v>
       </c>
@@ -14158,7 +14158,7 @@
       <c r="AA214" s="3"/>
       <c r="AB214" s="3"/>
     </row>
-    <row r="215" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
         <v>675</v>
       </c>
@@ -14203,7 +14203,7 @@
       <c r="AA215" s="3"/>
       <c r="AB215" s="3"/>
     </row>
-    <row r="216" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
         <v>675</v>
       </c>
@@ -14248,7 +14248,7 @@
       <c r="AA216" s="3"/>
       <c r="AB216" s="3"/>
     </row>
-    <row r="217" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
         <v>675</v>
       </c>
@@ -14293,7 +14293,7 @@
       <c r="AA217" s="3"/>
       <c r="AB217" s="3"/>
     </row>
-    <row r="218" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
         <v>687</v>
       </c>
@@ -14338,7 +14338,7 @@
       <c r="AA218" s="3"/>
       <c r="AB218" s="3"/>
     </row>
-    <row r="219" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
         <v>687</v>
       </c>
@@ -14383,7 +14383,7 @@
       <c r="AA219" s="3"/>
       <c r="AB219" s="3"/>
     </row>
-    <row r="220" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
         <v>687</v>
       </c>
@@ -14428,7 +14428,7 @@
       <c r="AA220" s="3"/>
       <c r="AB220" s="3"/>
     </row>
-    <row r="221" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
         <v>687</v>
       </c>
@@ -14473,7 +14473,7 @@
       <c r="AA221" s="3"/>
       <c r="AB221" s="3"/>
     </row>
-    <row r="222" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
         <v>687</v>
       </c>
@@ -14518,7 +14518,7 @@
       <c r="AA222" s="3"/>
       <c r="AB222" s="3"/>
     </row>
-    <row r="223" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
         <v>687</v>
       </c>
@@ -14563,7 +14563,7 @@
       <c r="AA223" s="3"/>
       <c r="AB223" s="3"/>
     </row>
-    <row r="224" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
         <v>705</v>
       </c>
@@ -14608,7 +14608,7 @@
       <c r="AA224" s="3"/>
       <c r="AB224" s="3"/>
     </row>
-    <row r="225" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
         <v>705</v>
       </c>
@@ -14653,7 +14653,7 @@
       <c r="AA225" s="3"/>
       <c r="AB225" s="3"/>
     </row>
-    <row r="226" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
         <v>705</v>
       </c>
@@ -14698,7 +14698,7 @@
       <c r="AA226" s="3"/>
       <c r="AB226" s="3"/>
     </row>
-    <row r="227" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
         <v>705</v>
       </c>
@@ -14743,7 +14743,7 @@
       <c r="AA227" s="3"/>
       <c r="AB227" s="3"/>
     </row>
-    <row r="228" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
         <v>705</v>
       </c>
@@ -14788,7 +14788,7 @@
       <c r="AA228" s="3"/>
       <c r="AB228" s="3"/>
     </row>
-    <row r="229" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
         <v>705</v>
       </c>
@@ -14833,7 +14833,7 @@
       <c r="AA229" s="3"/>
       <c r="AB229" s="3"/>
     </row>
-    <row r="230" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
         <v>722</v>
       </c>
@@ -14878,7 +14878,7 @@
       <c r="AA230" s="3"/>
       <c r="AB230" s="3"/>
     </row>
-    <row r="231" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
         <v>726</v>
       </c>
@@ -14923,7 +14923,7 @@
       <c r="AA231" s="3"/>
       <c r="AB231" s="3"/>
     </row>
-    <row r="232" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
         <v>726</v>
       </c>
@@ -14968,7 +14968,7 @@
       <c r="AA232" s="3"/>
       <c r="AB232" s="3"/>
     </row>
-    <row r="233" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
         <v>726</v>
       </c>
@@ -15013,7 +15013,7 @@
       <c r="AA233" s="3"/>
       <c r="AB233" s="3"/>
     </row>
-    <row r="234" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
         <v>726</v>
       </c>
@@ -15058,7 +15058,7 @@
       <c r="AA234" s="3"/>
       <c r="AB234" s="3"/>
     </row>
-    <row r="235" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
         <v>726</v>
       </c>
@@ -15103,7 +15103,7 @@
       <c r="AA235" s="3"/>
       <c r="AB235" s="3"/>
     </row>
-    <row r="236" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
         <v>726</v>
       </c>
@@ -15148,7 +15148,7 @@
       <c r="AA236" s="3"/>
       <c r="AB236" s="3"/>
     </row>
-    <row r="237" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
         <v>726</v>
       </c>
@@ -15193,7 +15193,7 @@
       <c r="AA237" s="3"/>
       <c r="AB237" s="3"/>
     </row>
-    <row r="238" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
         <v>726</v>
       </c>
@@ -15238,7 +15238,7 @@
       <c r="AA238" s="3"/>
       <c r="AB238" s="3"/>
     </row>
-    <row r="239" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
         <v>726</v>
       </c>
@@ -15283,7 +15283,7 @@
       <c r="AA239" s="3"/>
       <c r="AB239" s="3"/>
     </row>
-    <row r="240" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
         <v>726</v>
       </c>
@@ -15328,7 +15328,7 @@
       <c r="AA240" s="3"/>
       <c r="AB240" s="3"/>
     </row>
-    <row r="241" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
         <v>726</v>
       </c>
@@ -15373,7 +15373,7 @@
       <c r="AA241" s="3"/>
       <c r="AB241" s="3"/>
     </row>
-    <row r="242" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
         <v>726</v>
       </c>
@@ -15418,7 +15418,7 @@
       <c r="AA242" s="3"/>
       <c r="AB242" s="3"/>
     </row>
-    <row r="243" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
         <v>726</v>
       </c>
@@ -15466,7 +15466,7 @@
       <c r="AA243" s="3"/>
       <c r="AB243" s="3"/>
     </row>
-    <row r="244" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
         <v>763</v>
       </c>
@@ -15511,7 +15511,7 @@
       <c r="AA244" s="3"/>
       <c r="AB244" s="3"/>
     </row>
-    <row r="245" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
         <v>763</v>
       </c>
@@ -15556,7 +15556,7 @@
       <c r="AA245" s="3"/>
       <c r="AB245" s="3"/>
     </row>
-    <row r="246" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
         <v>763</v>
       </c>
@@ -15601,7 +15601,7 @@
       <c r="AA246" s="3"/>
       <c r="AB246" s="3"/>
     </row>
-    <row r="247" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
         <v>763</v>
       </c>
@@ -15649,7 +15649,7 @@
       <c r="AA247" s="3"/>
       <c r="AB247" s="3"/>
     </row>
-    <row r="248" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
         <v>779</v>
       </c>
@@ -15694,7 +15694,7 @@
       <c r="AA248" s="3"/>
       <c r="AB248" s="3"/>
     </row>
-    <row r="249" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
         <v>779</v>
       </c>
@@ -15739,7 +15739,7 @@
       <c r="AA249" s="3"/>
       <c r="AB249" s="3"/>
     </row>
-    <row r="250" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
         <v>779</v>
       </c>
@@ -15784,7 +15784,7 @@
       <c r="AA250" s="3"/>
       <c r="AB250" s="3"/>
     </row>
-    <row r="251" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
         <v>779</v>
       </c>
@@ -15829,7 +15829,7 @@
       <c r="AA251" s="3"/>
       <c r="AB251" s="3"/>
     </row>
-    <row r="252" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
         <v>779</v>
       </c>
@@ -15874,7 +15874,7 @@
       <c r="AA252" s="3"/>
       <c r="AB252" s="3"/>
     </row>
-    <row r="253" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
         <v>779</v>
       </c>
@@ -15919,7 +15919,7 @@
       <c r="AA253" s="3"/>
       <c r="AB253" s="3"/>
     </row>
-    <row r="254" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
         <v>779</v>
       </c>
@@ -15964,7 +15964,7 @@
       <c r="AA254" s="3"/>
       <c r="AB254" s="3"/>
     </row>
-    <row r="255" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
         <v>779</v>
       </c>
@@ -16009,7 +16009,7 @@
       <c r="AA255" s="3"/>
       <c r="AB255" s="3"/>
     </row>
-    <row r="256" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
         <v>779</v>
       </c>
@@ -16054,7 +16054,7 @@
       <c r="AA256" s="3"/>
       <c r="AB256" s="3"/>
     </row>
-    <row r="257" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
         <v>779</v>
       </c>
@@ -16099,7 +16099,7 @@
       <c r="AA257" s="3"/>
       <c r="AB257" s="3"/>
     </row>
-    <row r="258" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
         <v>779</v>
       </c>
@@ -16144,7 +16144,7 @@
       <c r="AA258" s="3"/>
       <c r="AB258" s="3"/>
     </row>
-    <row r="259" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
         <v>779</v>
       </c>
@@ -16189,7 +16189,7 @@
       <c r="AA259" s="3"/>
       <c r="AB259" s="3"/>
     </row>
-    <row r="260" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
         <v>779</v>
       </c>
@@ -16234,7 +16234,7 @@
       <c r="AA260" s="3"/>
       <c r="AB260" s="3"/>
     </row>
-    <row r="261" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
         <v>779</v>
       </c>
@@ -16279,7 +16279,7 @@
       <c r="AA261" s="3"/>
       <c r="AB261" s="3"/>
     </row>
-    <row r="262" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
         <v>779</v>
       </c>
@@ -16324,7 +16324,7 @@
       <c r="AA262" s="3"/>
       <c r="AB262" s="3"/>
     </row>
-    <row r="263" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
         <v>779</v>
       </c>
@@ -16369,7 +16369,7 @@
       <c r="AA263" s="3"/>
       <c r="AB263" s="3"/>
     </row>
-    <row r="264" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
         <v>779</v>
       </c>
@@ -16414,7 +16414,7 @@
       <c r="AA264" s="3"/>
       <c r="AB264" s="3"/>
     </row>
-    <row r="265" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
         <v>779</v>
       </c>
@@ -16462,7 +16462,7 @@
       <c r="AA265" s="3"/>
       <c r="AB265" s="3"/>
     </row>
-    <row r="266" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
         <v>779</v>
       </c>
@@ -16507,7 +16507,7 @@
       <c r="AA266" s="3"/>
       <c r="AB266" s="3"/>
     </row>
-    <row r="267" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
         <v>779</v>
       </c>
@@ -16552,7 +16552,7 @@
       <c r="AA267" s="3"/>
       <c r="AB267" s="3"/>
     </row>
-    <row r="268" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
         <v>779</v>
       </c>
@@ -16597,7 +16597,7 @@
       <c r="AA268" s="3"/>
       <c r="AB268" s="3"/>
     </row>
-    <row r="269" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
         <v>779</v>
       </c>
@@ -16642,7 +16642,7 @@
       <c r="AA269" s="3"/>
       <c r="AB269" s="3"/>
     </row>
-    <row r="270" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
         <v>779</v>
       </c>
@@ -16687,7 +16687,7 @@
       <c r="AA270" s="3"/>
       <c r="AB270" s="3"/>
     </row>
-    <row r="271" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
         <v>779</v>
       </c>
@@ -16732,7 +16732,7 @@
       <c r="AA271" s="3"/>
       <c r="AB271" s="3"/>
     </row>
-    <row r="272" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
         <v>779</v>
       </c>
@@ -16777,7 +16777,7 @@
       <c r="AA272" s="3"/>
       <c r="AB272" s="3"/>
     </row>
-    <row r="273" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
         <v>779</v>
       </c>
@@ -16822,7 +16822,7 @@
       <c r="AA273" s="3"/>
       <c r="AB273" s="3"/>
     </row>
-    <row r="274" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
         <v>779</v>
       </c>
@@ -16867,7 +16867,7 @@
       <c r="AA274" s="3"/>
       <c r="AB274" s="3"/>
     </row>
-    <row r="275" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
         <v>779</v>
       </c>
@@ -16912,7 +16912,7 @@
       <c r="AA275" s="3"/>
       <c r="AB275" s="3"/>
     </row>
-    <row r="276" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
         <v>779</v>
       </c>
@@ -16957,7 +16957,7 @@
       <c r="AA276" s="3"/>
       <c r="AB276" s="3"/>
     </row>
-    <row r="277" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
         <v>779</v>
       </c>
@@ -17005,7 +17005,7 @@
       <c r="AA277" s="3"/>
       <c r="AB277" s="3"/>
     </row>
-    <row r="278" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
         <v>779</v>
       </c>
@@ -17050,7 +17050,7 @@
       <c r="AA278" s="3"/>
       <c r="AB278" s="3"/>
     </row>
-    <row r="279" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
         <v>779</v>
       </c>
@@ -17095,7 +17095,7 @@
       <c r="AA279" s="3"/>
       <c r="AB279" s="3"/>
     </row>
-    <row r="280" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
         <v>779</v>
       </c>
@@ -17140,7 +17140,7 @@
       <c r="AA280" s="3"/>
       <c r="AB280" s="3"/>
     </row>
-    <row r="281" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
         <v>779</v>
       </c>
@@ -17185,7 +17185,7 @@
       <c r="AA281" s="3"/>
       <c r="AB281" s="3"/>
     </row>
-    <row r="282" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
         <v>779</v>
       </c>
@@ -17230,7 +17230,7 @@
       <c r="AA282" s="3"/>
       <c r="AB282" s="3"/>
     </row>
-    <row r="283" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
         <v>853</v>
       </c>
@@ -17275,7 +17275,7 @@
       <c r="AA283" s="3"/>
       <c r="AB283" s="3"/>
     </row>
-    <row r="284" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
         <v>853</v>
       </c>
@@ -17320,7 +17320,7 @@
       <c r="AA284" s="3"/>
       <c r="AB284" s="3"/>
     </row>
-    <row r="285" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
         <v>861</v>
       </c>
@@ -17365,7 +17365,7 @@
       <c r="AA285" s="3"/>
       <c r="AB285" s="3"/>
     </row>
-    <row r="286" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
         <v>861</v>
       </c>
@@ -17410,7 +17410,7 @@
       <c r="AA286" s="3"/>
       <c r="AB286" s="3"/>
     </row>
-    <row r="287" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
         <v>871</v>
       </c>
@@ -17455,7 +17455,7 @@
       <c r="AA287" s="3"/>
       <c r="AB287" s="3"/>
     </row>
-    <row r="288" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
         <v>871</v>
       </c>
@@ -17500,7 +17500,7 @@
       <c r="AA288" s="3"/>
       <c r="AB288" s="3"/>
     </row>
-    <row r="289" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
         <v>871</v>
       </c>
@@ -17545,7 +17545,7 @@
       <c r="AA289" s="3"/>
       <c r="AB289" s="3"/>
     </row>
-    <row r="290" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
         <v>871</v>
       </c>
@@ -17590,7 +17590,7 @@
       <c r="AA290" s="3"/>
       <c r="AB290" s="3"/>
     </row>
-    <row r="291" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
         <v>871</v>
       </c>
@@ -17638,7 +17638,7 @@
       <c r="AA291" s="3"/>
       <c r="AB291" s="3"/>
     </row>
-    <row r="292" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
         <v>871</v>
       </c>
@@ -17683,7 +17683,7 @@
       <c r="AA292" s="3"/>
       <c r="AB292" s="3"/>
     </row>
-    <row r="293" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
         <v>871</v>
       </c>
@@ -17728,7 +17728,7 @@
       <c r="AA293" s="3"/>
       <c r="AB293" s="3"/>
     </row>
-    <row r="294" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
         <v>871</v>
       </c>
@@ -17773,7 +17773,7 @@
       <c r="AA294" s="3"/>
       <c r="AB294" s="3"/>
     </row>
-    <row r="295" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
         <v>871</v>
       </c>
@@ -17818,7 +17818,7 @@
       <c r="AA295" s="3"/>
       <c r="AB295" s="3"/>
     </row>
-    <row r="296" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
         <v>871</v>
       </c>
@@ -17863,7 +17863,7 @@
       <c r="AA296" s="3"/>
       <c r="AB296" s="3"/>
     </row>
-    <row r="297" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
         <v>871</v>
       </c>
@@ -17908,7 +17908,7 @@
       <c r="AA297" s="3"/>
       <c r="AB297" s="3"/>
     </row>
-    <row r="298" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
         <v>904</v>
       </c>
@@ -17953,7 +17953,7 @@
       <c r="AA298" s="3"/>
       <c r="AB298" s="3"/>
     </row>
-    <row r="299" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
         <v>904</v>
       </c>
@@ -17998,7 +17998,7 @@
       <c r="AA299" s="3"/>
       <c r="AB299" s="3"/>
     </row>
-    <row r="300" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
         <v>904</v>
       </c>
@@ -18043,7 +18043,7 @@
       <c r="AA300" s="3"/>
       <c r="AB300" s="3"/>
     </row>
-    <row r="301" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
         <v>904</v>
       </c>
@@ -18088,7 +18088,7 @@
       <c r="AA301" s="3"/>
       <c r="AB301" s="3"/>
     </row>
-    <row r="302" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
         <v>917</v>
       </c>
@@ -18133,7 +18133,7 @@
       <c r="AA302" s="3"/>
       <c r="AB302" s="3"/>
     </row>
-    <row r="303" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
         <v>917</v>
       </c>
@@ -18178,7 +18178,7 @@
       <c r="AA303" s="3"/>
       <c r="AB303" s="3"/>
     </row>
-    <row r="304" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
         <v>917</v>
       </c>
@@ -18223,7 +18223,7 @@
       <c r="AA304" s="3"/>
       <c r="AB304" s="3"/>
     </row>
-    <row r="305" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
         <v>917</v>
       </c>
@@ -18268,7 +18268,7 @@
       <c r="AA305" s="3"/>
       <c r="AB305" s="3"/>
     </row>
-    <row r="306" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
         <v>917</v>
       </c>
@@ -18313,7 +18313,7 @@
       <c r="AA306" s="3"/>
       <c r="AB306" s="3"/>
     </row>
-    <row r="307" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
         <v>932</v>
       </c>
@@ -18358,7 +18358,7 @@
       <c r="AA307" s="3"/>
       <c r="AB307" s="3"/>
     </row>
-    <row r="308" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
         <v>932</v>
       </c>
@@ -18403,7 +18403,7 @@
       <c r="AA308" s="3"/>
       <c r="AB308" s="3"/>
     </row>
-    <row r="309" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
         <v>932</v>
       </c>
@@ -18448,7 +18448,7 @@
       <c r="AA309" s="3"/>
       <c r="AB309" s="3"/>
     </row>
-    <row r="310" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
         <v>932</v>
       </c>
@@ -18493,7 +18493,7 @@
       <c r="AA310" s="3"/>
       <c r="AB310" s="3"/>
     </row>
-    <row r="311" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
         <v>932</v>
       </c>
@@ -18541,7 +18541,7 @@
       <c r="AA311" s="3"/>
       <c r="AB311" s="3"/>
     </row>
-    <row r="312" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
         <v>932</v>
       </c>
@@ -18586,7 +18586,7 @@
       <c r="AA312" s="3"/>
       <c r="AB312" s="3"/>
     </row>
-    <row r="313" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
         <v>932</v>
       </c>
@@ -18631,7 +18631,7 @@
       <c r="AA313" s="3"/>
       <c r="AB313" s="3"/>
     </row>
-    <row r="314" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
         <v>932</v>
       </c>
@@ -18676,7 +18676,7 @@
       <c r="AA314" s="3"/>
       <c r="AB314" s="3"/>
     </row>
-    <row r="315" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
         <v>932</v>
       </c>
@@ -18721,7 +18721,7 @@
       <c r="AA315" s="3"/>
       <c r="AB315" s="3"/>
     </row>
-    <row r="316" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
         <v>932</v>
       </c>
@@ -18766,7 +18766,7 @@
       <c r="AA316" s="3"/>
       <c r="AB316" s="3"/>
     </row>
-    <row r="317" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
         <v>932</v>
       </c>
@@ -18811,7 +18811,7 @@
       <c r="AA317" s="3"/>
       <c r="AB317" s="3"/>
     </row>
-    <row r="318" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
         <v>932</v>
       </c>
@@ -18854,7 +18854,7 @@
       <c r="AA318" s="3"/>
       <c r="AB318" s="3"/>
     </row>
-    <row r="319" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
         <v>932</v>
       </c>
@@ -18899,7 +18899,7 @@
       <c r="AA319" s="3"/>
       <c r="AB319" s="3"/>
     </row>
-    <row r="320" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
         <v>932</v>
       </c>
@@ -18944,7 +18944,7 @@
       <c r="AA320" s="3"/>
       <c r="AB320" s="3"/>
     </row>
-    <row r="321" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
         <v>932</v>
       </c>
@@ -18989,7 +18989,7 @@
       <c r="AA321" s="3"/>
       <c r="AB321" s="3"/>
     </row>
-    <row r="322" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
         <v>932</v>
       </c>
@@ -19034,7 +19034,7 @@
       <c r="AA322" s="3"/>
       <c r="AB322" s="3"/>
     </row>
-    <row r="323" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
         <v>932</v>
       </c>
@@ -19079,7 +19079,7 @@
       <c r="AA323" s="3"/>
       <c r="AB323" s="3"/>
     </row>
-    <row r="324" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
         <v>932</v>
       </c>
@@ -19124,7 +19124,7 @@
       <c r="AA324" s="3"/>
       <c r="AB324" s="3"/>
     </row>
-    <row r="325" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
         <v>932</v>
       </c>
@@ -19169,7 +19169,7 @@
       <c r="AA325" s="3"/>
       <c r="AB325" s="3"/>
     </row>
-    <row r="326" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
         <v>990</v>
       </c>
@@ -19214,7 +19214,7 @@
       <c r="AA326" s="3"/>
       <c r="AB326" s="3"/>
     </row>
-    <row r="327" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
         <v>990</v>
       </c>
@@ -19259,7 +19259,7 @@
       <c r="AA327" s="3"/>
       <c r="AB327" s="3"/>
     </row>
-    <row r="328" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
         <v>990</v>
       </c>
@@ -19304,7 +19304,7 @@
       <c r="AA328" s="3"/>
       <c r="AB328" s="3"/>
     </row>
-    <row r="329" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
         <v>990</v>
       </c>
@@ -19349,7 +19349,7 @@
       <c r="AA329" s="3"/>
       <c r="AB329" s="3"/>
     </row>
-    <row r="330" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
         <v>999</v>
       </c>
@@ -19397,7 +19397,7 @@
       <c r="AA330" s="3"/>
       <c r="AB330" s="3"/>
     </row>
-    <row r="331" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
         <v>999</v>
       </c>
@@ -19442,7 +19442,7 @@
       <c r="AA331" s="3"/>
       <c r="AB331" s="3"/>
     </row>
-    <row r="332" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
         <v>1007</v>
       </c>
@@ -19487,7 +19487,7 @@
       <c r="AA332" s="3"/>
       <c r="AB332" s="3"/>
     </row>
-    <row r="333" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
         <v>1007</v>
       </c>
@@ -19532,7 +19532,7 @@
       <c r="AA333" s="3"/>
       <c r="AB333" s="3"/>
     </row>
-    <row r="334" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
         <v>1016</v>
       </c>
@@ -19577,7 +19577,7 @@
       <c r="AA334" s="3"/>
       <c r="AB334" s="3"/>
     </row>
-    <row r="335" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
         <v>1016</v>
       </c>
@@ -19622,7 +19622,7 @@
       <c r="AA335" s="3"/>
       <c r="AB335" s="3"/>
     </row>
-    <row r="336" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A336" t="s">
         <v>1016</v>
       </c>
@@ -19667,7 +19667,7 @@
       <c r="AA336" s="3"/>
       <c r="AB336" s="3"/>
     </row>
-    <row r="337" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
         <v>1016</v>
       </c>
@@ -19715,7 +19715,7 @@
       <c r="AA337" s="3"/>
       <c r="AB337" s="3"/>
     </row>
-    <row r="338" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
         <v>1016</v>
       </c>
@@ -19760,7 +19760,7 @@
       <c r="AA338" s="3"/>
       <c r="AB338" s="3"/>
     </row>
-    <row r="339" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
         <v>1038</v>
       </c>
@@ -19805,7 +19805,7 @@
       <c r="AA339" s="3"/>
       <c r="AB339" s="3"/>
     </row>
-    <row r="340" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
         <v>1038</v>
       </c>
@@ -19853,7 +19853,7 @@
       <c r="AA340" s="3"/>
       <c r="AB340" s="3"/>
     </row>
-    <row r="341" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
         <v>1038</v>
       </c>
@@ -19901,7 +19901,7 @@
       <c r="AA341" s="3"/>
       <c r="AB341" s="3"/>
     </row>
-    <row r="342" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
         <v>1038</v>
       </c>
@@ -19946,7 +19946,7 @@
       <c r="AA342" s="3"/>
       <c r="AB342" s="3"/>
     </row>
-    <row r="343" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
         <v>1038</v>
       </c>
@@ -19991,7 +19991,7 @@
       <c r="AA343" s="3"/>
       <c r="AB343" s="3"/>
     </row>
-    <row r="344" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
         <v>1038</v>
       </c>
@@ -20036,7 +20036,7 @@
       <c r="AA344" s="3"/>
       <c r="AB344" s="3"/>
     </row>
-    <row r="345" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
         <v>1038</v>
       </c>
@@ -20081,7 +20081,7 @@
       <c r="AA345" s="3"/>
       <c r="AB345" s="3"/>
     </row>
-    <row r="346" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
         <v>1038</v>
       </c>
@@ -20126,7 +20126,7 @@
       <c r="AA346" s="3"/>
       <c r="AB346" s="3"/>
     </row>
-    <row r="347" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
         <v>1038</v>
       </c>
@@ -20174,7 +20174,7 @@
       <c r="AA347" s="3"/>
       <c r="AB347" s="3"/>
     </row>
-    <row r="348" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
         <v>1038</v>
       </c>
@@ -20219,7 +20219,7 @@
       <c r="AA348" s="3"/>
       <c r="AB348" s="3"/>
     </row>
-    <row r="349" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
         <v>1038</v>
       </c>
@@ -20267,7 +20267,7 @@
       <c r="AA349" s="3"/>
       <c r="AB349" s="3"/>
     </row>
-    <row r="350" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
         <v>1038</v>
       </c>
@@ -20312,7 +20312,7 @@
       <c r="AA350" s="3"/>
       <c r="AB350" s="3"/>
     </row>
-    <row r="351" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
         <v>1038</v>
       </c>
@@ -20357,7 +20357,7 @@
       <c r="AA351" s="3"/>
       <c r="AB351" s="3"/>
     </row>
-    <row r="352" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
         <v>1038</v>
       </c>
@@ -20402,7 +20402,7 @@
       <c r="AA352" s="3"/>
       <c r="AB352" s="3"/>
     </row>
-    <row r="353" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
         <v>1038</v>
       </c>
@@ -20447,7 +20447,7 @@
       <c r="AA353" s="3"/>
       <c r="AB353" s="3"/>
     </row>
-    <row r="354" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
         <v>1038</v>
       </c>
@@ -20492,7 +20492,7 @@
       <c r="AA354" s="3"/>
       <c r="AB354" s="3"/>
     </row>
-    <row r="355" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
         <v>1038</v>
       </c>
@@ -20537,7 +20537,7 @@
       <c r="AA355" s="3"/>
       <c r="AB355" s="3"/>
     </row>
-    <row r="356" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
         <v>1038</v>
       </c>
@@ -20580,7 +20580,7 @@
       <c r="AA356" s="3"/>
       <c r="AB356" s="3"/>
     </row>
-    <row r="357" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
         <v>1038</v>
       </c>
@@ -20625,7 +20625,7 @@
       <c r="AA357" s="3"/>
       <c r="AB357" s="3"/>
     </row>
-    <row r="358" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
         <v>1038</v>
       </c>
@@ -20670,7 +20670,7 @@
       <c r="AA358" s="3"/>
       <c r="AB358" s="3"/>
     </row>
-    <row r="359" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
         <v>1038</v>
       </c>
@@ -20715,7 +20715,7 @@
       <c r="AA359" s="3"/>
       <c r="AB359" s="3"/>
     </row>
-    <row r="360" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
         <v>1038</v>
       </c>
@@ -20763,7 +20763,7 @@
       <c r="AA360" s="3"/>
       <c r="AB360" s="3"/>
     </row>
-    <row r="361" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
         <v>1038</v>
       </c>
@@ -20808,7 +20808,7 @@
       <c r="AA361" s="3"/>
       <c r="AB361" s="3"/>
     </row>
-    <row r="362" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
         <v>1038</v>
       </c>
@@ -20856,7 +20856,7 @@
       <c r="AA362" s="3"/>
       <c r="AB362" s="3"/>
     </row>
-    <row r="363" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
         <v>1038</v>
       </c>
@@ -20901,7 +20901,7 @@
       <c r="AA363" s="3"/>
       <c r="AB363" s="3"/>
     </row>
-    <row r="364" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
         <v>1038</v>
       </c>
@@ -20946,7 +20946,7 @@
       <c r="AA364" s="3"/>
       <c r="AB364" s="3"/>
     </row>
-    <row r="365" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
         <v>1038</v>
       </c>
@@ -20991,7 +20991,7 @@
       <c r="AA365" s="3"/>
       <c r="AB365" s="3"/>
     </row>
-    <row r="366" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
         <v>1132</v>
       </c>
@@ -21036,7 +21036,7 @@
       <c r="AA366" s="3"/>
       <c r="AB366" s="3"/>
     </row>
-    <row r="367" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
         <v>1136</v>
       </c>
@@ -21078,7 +21078,7 @@
       <c r="AA367" s="3"/>
       <c r="AB367" s="3"/>
     </row>
-    <row r="368" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A368" t="s">
         <v>1139</v>
       </c>
@@ -21123,7 +21123,7 @@
       <c r="AA368" s="3"/>
       <c r="AB368" s="3"/>
     </row>
-    <row r="369" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A369" t="s">
         <v>1139</v>
       </c>
@@ -21168,7 +21168,7 @@
       <c r="AA369" s="3"/>
       <c r="AB369" s="3"/>
     </row>
-    <row r="370" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
         <v>1146</v>
       </c>
@@ -21213,7 +21213,7 @@
       <c r="AA370" s="3"/>
       <c r="AB370" s="3"/>
     </row>
-    <row r="371" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
         <v>1146</v>
       </c>
@@ -21258,7 +21258,7 @@
       <c r="AA371" s="3"/>
       <c r="AB371" s="3"/>
     </row>
-    <row r="372" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
         <v>1146</v>
       </c>
@@ -21303,7 +21303,7 @@
       <c r="AA372" s="3"/>
       <c r="AB372" s="3"/>
     </row>
-    <row r="373" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A373" t="s">
         <v>1158</v>
       </c>
@@ -21348,7 +21348,7 @@
       <c r="AA373" s="3"/>
       <c r="AB373" s="3"/>
     </row>
-    <row r="374" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A374" t="s">
         <v>1158</v>
       </c>
@@ -21393,7 +21393,7 @@
       <c r="AA374" s="3"/>
       <c r="AB374" s="3"/>
     </row>
-    <row r="375" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
         <v>1158</v>
       </c>
@@ -21438,7 +21438,7 @@
       <c r="AA375" s="3"/>
       <c r="AB375" s="3"/>
     </row>
-    <row r="376" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A376" t="s">
         <v>1158</v>
       </c>
@@ -21483,7 +21483,7 @@
       <c r="AA376" s="3"/>
       <c r="AB376" s="3"/>
     </row>
-    <row r="377" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A377" t="s">
         <v>1158</v>
       </c>
@@ -21528,7 +21528,7 @@
       <c r="AA377" s="3"/>
       <c r="AB377" s="3"/>
     </row>
-    <row r="378" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A378" t="s">
         <v>1158</v>
       </c>
@@ -21573,7 +21573,7 @@
       <c r="AA378" s="3"/>
       <c r="AB378" s="3"/>
     </row>
-    <row r="379" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A379" t="s">
         <v>1158</v>
       </c>
@@ -21618,7 +21618,7 @@
       <c r="AA379" s="3"/>
       <c r="AB379" s="3"/>
     </row>
-    <row r="380" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A380" t="s">
         <v>1158</v>
       </c>
@@ -21666,7 +21666,7 @@
       <c r="AA380" s="3"/>
       <c r="AB380" s="3"/>
     </row>
-    <row r="381" spans="1:28" ht="48" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:28" ht="57" x14ac:dyDescent="0.45">
       <c r="A381" t="s">
         <v>1185</v>
       </c>
@@ -21711,7 +21711,7 @@
       <c r="AA381" s="3"/>
       <c r="AB381" s="3"/>
     </row>
-    <row r="382" spans="1:28" ht="48" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:28" ht="57" x14ac:dyDescent="0.45">
       <c r="A382" t="s">
         <v>1185</v>
       </c>
@@ -21756,7 +21756,7 @@
       <c r="AA382" s="3"/>
       <c r="AB382" s="3"/>
     </row>
-    <row r="383" spans="1:28" ht="48" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:28" ht="57" x14ac:dyDescent="0.45">
       <c r="A383" t="s">
         <v>1185</v>
       </c>
@@ -21801,7 +21801,7 @@
       <c r="AA383" s="3"/>
       <c r="AB383" s="3"/>
     </row>
-    <row r="384" spans="1:28" ht="48" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:28" ht="57" x14ac:dyDescent="0.45">
       <c r="A384" t="s">
         <v>1185</v>
       </c>
@@ -21846,7 +21846,7 @@
       <c r="AA384" s="3"/>
       <c r="AB384" s="3"/>
     </row>
-    <row r="385" spans="1:28" ht="48" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:28" ht="57" x14ac:dyDescent="0.45">
       <c r="A385" t="s">
         <v>1185</v>
       </c>
@@ -21891,7 +21891,7 @@
       <c r="AA385" s="3"/>
       <c r="AB385" s="3"/>
     </row>
-    <row r="386" spans="1:28" ht="48" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:28" ht="57" x14ac:dyDescent="0.45">
       <c r="A386" t="s">
         <v>1185</v>
       </c>
@@ -21936,7 +21936,7 @@
       <c r="AA386" s="3"/>
       <c r="AB386" s="3"/>
     </row>
-    <row r="387" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A387" t="s">
         <v>1185</v>
       </c>
@@ -21981,7 +21981,7 @@
       <c r="AA387" s="3"/>
       <c r="AB387" s="3"/>
     </row>
-    <row r="388" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A388" t="s">
         <v>1185</v>
       </c>
@@ -22026,7 +22026,7 @@
       <c r="AA388" s="3"/>
       <c r="AB388" s="3"/>
     </row>
-    <row r="389" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A389" t="s">
         <v>1185</v>
       </c>
@@ -22071,7 +22071,7 @@
       <c r="AA389" s="3"/>
       <c r="AB389" s="3"/>
     </row>
-    <row r="390" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A390" t="s">
         <v>1185</v>
       </c>
@@ -22116,7 +22116,7 @@
       <c r="AA390" s="3"/>
       <c r="AB390" s="3"/>
     </row>
-    <row r="391" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A391" t="s">
         <v>1185</v>
       </c>
@@ -22161,7 +22161,7 @@
       <c r="AA391" s="3"/>
       <c r="AB391" s="3"/>
     </row>
-    <row r="392" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A392" t="s">
         <v>1185</v>
       </c>
@@ -22209,7 +22209,7 @@
       <c r="AA392" s="3"/>
       <c r="AB392" s="3"/>
     </row>
-    <row r="393" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A393" t="s">
         <v>1214</v>
       </c>
@@ -22254,7 +22254,7 @@
       <c r="AA393" s="3"/>
       <c r="AB393" s="3"/>
     </row>
-    <row r="394" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A394" t="s">
         <v>1214</v>
       </c>
@@ -22299,7 +22299,7 @@
       <c r="AA394" s="3"/>
       <c r="AB394" s="3"/>
     </row>
-    <row r="395" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A395" t="s">
         <v>1219</v>
       </c>
@@ -22344,7 +22344,7 @@
       <c r="AA395" s="3"/>
       <c r="AB395" s="3"/>
     </row>
-    <row r="396" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A396" t="s">
         <v>1219</v>
       </c>
@@ -22389,7 +22389,7 @@
       <c r="AA396" s="3"/>
       <c r="AB396" s="3"/>
     </row>
-    <row r="397" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A397" t="s">
         <v>1219</v>
       </c>
@@ -22434,7 +22434,7 @@
       <c r="AA397" s="3"/>
       <c r="AB397" s="3"/>
     </row>
-    <row r="398" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A398" t="s">
         <v>1219</v>
       </c>
@@ -22479,7 +22479,7 @@
       <c r="AA398" s="3"/>
       <c r="AB398" s="3"/>
     </row>
-    <row r="399" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A399" t="s">
         <v>1219</v>
       </c>
@@ -22524,7 +22524,7 @@
       <c r="AA399" s="3"/>
       <c r="AB399" s="3"/>
     </row>
-    <row r="400" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A400" t="s">
         <v>1219</v>
       </c>
@@ -22569,7 +22569,7 @@
       <c r="AA400" s="3"/>
       <c r="AB400" s="3"/>
     </row>
-    <row r="401" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A401" t="s">
         <v>1219</v>
       </c>
@@ -22614,7 +22614,7 @@
       <c r="AA401" s="3"/>
       <c r="AB401" s="3"/>
     </row>
-    <row r="402" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A402" t="s">
         <v>1219</v>
       </c>
@@ -22662,7 +22662,7 @@
       <c r="AA402" s="3"/>
       <c r="AB402" s="3"/>
     </row>
-    <row r="403" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A403" t="s">
         <v>1219</v>
       </c>
@@ -22707,7 +22707,7 @@
       <c r="AA403" s="3"/>
       <c r="AB403" s="3"/>
     </row>
-    <row r="404" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A404" t="s">
         <v>1219</v>
       </c>
@@ -22752,7 +22752,7 @@
       <c r="AA404" s="3"/>
       <c r="AB404" s="3"/>
     </row>
-    <row r="405" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A405" t="s">
         <v>1247</v>
       </c>
@@ -22797,7 +22797,7 @@
       <c r="AA405" s="3"/>
       <c r="AB405" s="3"/>
     </row>
-    <row r="406" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A406" t="s">
         <v>1247</v>
       </c>
@@ -22842,15 +22842,15 @@
       <c r="AA406" s="3"/>
       <c r="AB406" s="3"/>
     </row>
-    <row r="407" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="408" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="409" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="410" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="411" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="412" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="413" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="414" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="415" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <autoFilter ref="H1:H415" xr:uid="{0EB50BD0-D1F3-4E75-9997-3A739E95DD85}"/>
   <dataValidations count="2">
